--- a/DOM_Banner/output/dept_banner/Esteban Symonds_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Esteban Symonds_2022.xlsx
@@ -696,7 +696,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W4283782560", "https://openalex.org/W2403518182", "https://openalex.org/W2955729599", "https://openalex.org/W4221137949", "https://openalex.org/W1954515006", "https://openalex.org/W4379339843", "https://openalex.org/W3195654605", "https://openalex.org/W3006539352", "https://openalex.org/W3197444260", "https://openalex.org/W4206127872")</t>
+          <t>c("https://openalex.org/W4221137949", "https://openalex.org/W3141716038", "https://openalex.org/W2071355922", "https://openalex.org/W4294676928", "https://openalex.org/W3030154634", "https://openalex.org/W2890060779", "https://openalex.org/W2672007471", "https://openalex.org/W2800938829", "https://openalex.org/W4315489722", "https://openalex.org/W4283782560")</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Esteban Symonds_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Esteban Symonds_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,545 +360,246 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Esteban Astiazaran-Symonds, Jung Kim, Jeremy S. Haley, Sun Young Kim, Harish Rao, Regeneron Genetics Center, David J. Carey, Douglas R. Stewart, Alisa M. Goldstein</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283782560</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>A Genome-First Approach to Estimate Prevalence of Germline Pathogenic Variants and Risk of Pancreatic Cancer in Select Cancer Susceptibility Genes</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5010157426", "https://openalex.org/A5042253576", "https://openalex.org/A5043116127", "https://openalex.org/A5043745595", "https://openalex.org/A5051473676", "https://openalex.org/A5056946761", "https://openalex.org/A5074651593", "https://openalex.org/A5061602052", "https://openalex.org/A5063007431"), au_display_name = c("Esteban Astiazaran-Symonds", "Jung Kim", "Jeremy S. Haley", "Sun Young Kim", "Harish Rao", "Regeneron Genetics Center", "David J. Carey", "Douglas R. Stewart", 
-"Alisa M. Goldstein"), au_orcid = c("https://orcid.org/0000-0001-8526-2576", "https://orcid.org/0000-0001-6274-2841", "https://orcid.org/0000-0002-3279-7873", "https://orcid.org/0000-0002-9560-0652", "https://orcid.org/0000-0002-6324-1800", NA, NA, "https://orcid.org/0000-0001-8193-1488", "https://orcid.org/0000-0002-7538-3582"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Clinical Genetics Branch, Division of Cancer Epidemiology and Genetics, National Cancer Institute, NIH, 9609 Medical Center Drive, Rockville, MD 20850, USA", 
-"Clinical Genetics Branch, Division of Cancer Epidemiology and Genetics, National Cancer Institute, NIH, 9609 Medical Center Drive, Rockville, MD 20850, USA", "Geisinger Clinic, Geisinger Health System, 100 N Academy Ave, Danville, CA 17821, USA", "Clinical Genetics Branch, Division of Cancer Epidemiology and Genetics, National Cancer Institute, NIH, 9609 Medical Center Drive, Rockville, MD 20850, USA; Department of Genetic Medicine, Johns Hopkins University School of Medicine, 733 N Broadway, Baltimore, MD 21205, USA", 
-"Geisinger Clinic, Geisinger Health System, 100 N Academy Ave, Danville, CA 17821, USA", "Regeneron Genetics Center, 777 Old Saw Mill River Rd, Tarrytown, NY 10591, USA", "Geisinger Clinic, Geisinger Health System, 100 N Academy Ave, Danville, CA 17821, USA", "Clinical Genetics Branch, Division of Cancer Epidemiology and Genetics, National Cancer Institute, NIH, 9609 Medical Center Drive, Rockville, MD 20850, USA", "Clinical Genetics Branch, Division of Cancer Epidemiology and Genetics, National Cancer Institute, NIH, 9609 Medical Center Drive, Rockville, MD 20850, USA"
-), institution_id = c("https://openalex.org/I4210140884", "https://openalex.org/I4210140884", "https://openalex.org/I54713919", "https://openalex.org/I4210140884", "https://openalex.org/I54713919", "https://openalex.org/I186523950", "https://openalex.org/I54713919", "https://openalex.org/I4210140884", "https://openalex.org/I4210140884"), institution_display_name = c("National Cancer Institute", "National Cancer Institute", "Geisinger Health System", "National Cancer Institute", "Geisinger Health System", 
-"Regeneron (United States)", "Geisinger Health System", "National Cancer Institute", "National Cancer Institute"), institution_ror = c("https://ror.org/040gcmg81", "https://ror.org/040gcmg81", "https://ror.org/02qdbgx97", "https://ror.org/040gcmg81", "https://ror.org/02qdbgx97", "https://ror.org/02f51rf24", "https://ror.org/02qdbgx97", "https://ror.org/040gcmg81", "https://ror.org/040gcmg81"), institution_country_code = c("US", "US", "US", "US", "US", "US", "US", "US", "US"), institution_type = c("government", 
-"government", "healthcare", "government", "healthcare", "company", "healthcare", "government", "government"), institution_lineage = c("https://openalex.org/I1299303238, https://openalex.org/I4210140884", "https://openalex.org/I1299303238, https://openalex.org/I4210140884", "https://openalex.org/I54713919", "https://openalex.org/I1299303238, https://openalex.org/I4210140884", "https://openalex.org/I54713919", "https://openalex.org/I186523950", "https://openalex.org/I54713919", "https://openalex.org/I1299303238, https://openalex.org/I4210140884", 
-"https://openalex.org/I1299303238, https://openalex.org/I4210140884"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Patients with germline pathogenic variants (GPV) in cancer predisposition genes are at increased risk of pancreatic ductal adenocarcinoma (PDAC), the most common type of pancreatic cancer. The genes most frequently found to harbor GPV in unselected PDAC cases are ATM, BRCA1, BRCA2, CDKN2A, CHEK2, and PALB2. However, GPV prevalence and gene-specific associations have not been extensively studied in the general population. To further explore these associations, we analyzed genomic and phenotypic data obtained from the UK Biobank (UKB) and Geisinger MyCode Community Health Initiative (GHS) cohorts comprising 200,600 and 175,449 participants, respectively. We estimated the frequency and calculated relative risks (RRs) of heterozygotes in both cohorts and a subset of individuals with PDAC. The combined frequency of heterozygous carriers of GPV in the general population ranged from 1.22% for CHEK2 to 0.05% for CDKN2A. The frequency of GPV in PDAC cases varied from 2.38% (ATM) to 0.19% (BRCA1 and CDKN2A). The RRs of PDAC were elevated for all genes except for BRCA1 and varied widely by gene from high (ATM) to low (CHEK2, BRCA2). This work expands our understanding of the frequencies of GPV heterozygous carriers and associations between PDAC and GPV in several important PDAC susceptibility genes.</t>
+          <t>2022-07-02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-07-02</t>
+          <t>Cancers</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cancers</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S168415115</t>
+          <t>https://doi.org/10.3390/cancers14133257</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2072-6694</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35805029</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.3390/cancers14133257</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>https://www.mdpi.com/2072-6694/14/13/3257/pdf?version=1656997736</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>cc-by</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>3257</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>3257</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://www.mdpi.com/2072-6694/14/13/3257/pdf?version=1656997736</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>c(funder = "https://openalex.org/F4320332161", funder_display_name = "National Institutes of Health", award_id = "T32GM007471")</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4283782560</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4283782560", doi = "https://doi.org/10.3390/cancers14133257", pmid = "https://pubmed.ncbi.nlm.nih.gov/35805029")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3390/cancers14133257</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1968043000", "https://openalex.org/W1968812902", "https://openalex.org/W1984068087", "https://openalex.org/W2010378709", "https://openalex.org/W2028260197", "https://openalex.org/W2029024053", "https://openalex.org/W2035701062", "https://openalex.org/W2051976727", "https://openalex.org/W2051978340", "https://openalex.org/W2082704080", "https://openalex.org/W2086840280", "https://openalex.org/W2087791044", "https://openalex.org/W2089895854", "https://openalex.org/W2106578986", 
-"https://openalex.org/W2147918436", "https://openalex.org/W2166852863", "https://openalex.org/W2317940827", "https://openalex.org/W2443172870", "https://openalex.org/W2493114714", "https://openalex.org/W2522369252", "https://openalex.org/W2580887223", "https://openalex.org/W2770026599", "https://openalex.org/W2808661329", "https://openalex.org/W2895486342", "https://openalex.org/W2945528112", "https://openalex.org/W2951895285", "https://openalex.org/W2955729599", "https://openalex.org/W2967916319", 
-"https://openalex.org/W3015069968", "https://openalex.org/W3094550675", "https://openalex.org/W3119005666", "https://openalex.org/W3161545725", "https://openalex.org/W3161833585", "https://openalex.org/W3162325855", "https://openalex.org/W3162351393", "https://openalex.org/W3178475513", "https://openalex.org/W3189278858", "https://openalex.org/W3200810541", "https://openalex.org/W3207912190", "https://openalex.org/W3216709718")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W4221137949", "https://openalex.org/W3141716038", "https://openalex.org/W2071355922", "https://openalex.org/W4294676928", "https://openalex.org/W3030154634", "https://openalex.org/W2890060779", "https://openalex.org/W2672007471", "https://openalex.org/W2800938829", "https://openalex.org/W4315489722", "https://openalex.org/W4283782560")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Esteban Astiazaran-Symonds, C. Edmund Graham, Jung Kim, Margaret A. Tucker, Christian Ingvar, Hildur Helgadóttir, Lorenza Pastorino, Remco van Doorn, Joshua N. Sampson, Bin Zhu, William Bruno, Paola Queirolo, Giuseppe Fornarini, Stefania Sciallero, Brian Carter, Belynda Hicks, Amy Hutchinson, Kristine Jones, Douglas R. Stewart, Stephen J. Chanock, Neal D. Freedman, Maria Teresa Landi, Veronica Höiom, Susana Puig, Nelleke A. Gruis, Xiaohong R. Yang, Paola Ghiorzo, Alisa M. Goldstein</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4309662339</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Gene-Level Associations in Patients With and Without Pathogenic Germline Variants in &lt;i&gt;CDKN2A&lt;/i&gt; and Pancreatic Cancer</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5010157426", "https://openalex.org/A5085911843", "https://openalex.org/A5042253576", "https://openalex.org/A5057142749", "https://openalex.org/A5043291518", "https://openalex.org/A5052059834", "https://openalex.org/A5025473720", "https://openalex.org/A5012934489", "https://openalex.org/A5050414089", "https://openalex.org/A5085582634", "https://openalex.org/A5053034134", "https://openalex.org/A5071929183", "https://openalex.org/A5081355165", "https://openalex.org/A5006768444", 
-"https://openalex.org/A5047677481", "https://openalex.org/A5067533895", "https://openalex.org/A5088697436", "https://openalex.org/A5039857143", "https://openalex.org/A5061602052", "https://openalex.org/A5091653870", "https://openalex.org/A5089976309", "https://openalex.org/A5002463978", "https://openalex.org/A5071927003", "https://openalex.org/A5079760997", "https://openalex.org/A5019472757", "https://openalex.org/A5038423396", "https://openalex.org/A5036052073", "https://openalex.org/A5063007431"
-), au_display_name = c("Esteban Astiazaran-Symonds", "C. Edmund Graham", "Jung Kim", "Margaret A. Tucker", "Christian Ingvar", "Hildur Helgadóttir", "Lorenza Pastorino", "Remco van Doorn", "Joshua N. Sampson", "Bin Zhu", "William Bruno", "Paola Queirolo", "Giuseppe Fornarini", "Stefania Sciallero", "Brian Carter", "Belynda Hicks", "Amy Hutchinson", "Kristine Jones", "Douglas R. Stewart", "Stephen J. Chanock", "Neal D. Freedman", "Maria Teresa Landi", "Veronica Höiom", "Susana Puig", "Nelleke A. Gruis", 
-"Xiaohong R. Yang", "Paola Ghiorzo", "Alisa M. Goldstein"), au_orcid = c("https://orcid.org/0000-0001-8526-2576", "https://orcid.org/0000-0003-3088-329X", "https://orcid.org/0000-0001-6274-2841", "https://orcid.org/0000-0003-0274-6773", "https://orcid.org/0000-0002-7721-4619", "https://orcid.org/0000-0002-0735-4771", "https://orcid.org/0000-0002-2575-8331", "https://orcid.org/0000-0002-7019-6673", "https://orcid.org/0000-0003-2875-3365", "https://orcid.org/0000-0002-6675-1849", "https://orcid.org/0000-0002-0337-0168", 
-"https://orcid.org/0000-0002-9917-6633", "https://orcid.org/0000-0003-4754-6572", "https://orcid.org/0000-0002-1325-1701", "https://orcid.org/0000-0003-1166-6521", "https://orcid.org/0000-0001-8014-4888", "https://orcid.org/0000-0002-4962-2711", "https://orcid.org/0000-0003-1584-8920", "https://orcid.org/0000-0001-8193-1488", "https://orcid.org/0000-0002-2324-3393", "https://orcid.org/0000-0003-0074-1098", NA, NA, "https://orcid.org/0000-0003-1337-9745", "https://orcid.org/0000-0002-5210-9150", "https://orcid.org/0000-0003-4451-8664", 
-"https://orcid.org/0000-0002-3651-8173", "https://orcid.org/0000-0002-7538-3582"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson, AZ; Division of Cancer Epidemiology and Genetics, NCI, NIH, Bethesda, MD; National Human Genome Research Institute, NIH, Bethesda, MD", 
-"Division of Cancer Epidemiology and Genetics, NCI, NIH, Bethesda, MD", "Division of Cancer Epidemiology and Genetics, NCI, NIH, Bethesda, MD", "Division of Cancer Epidemiology and Genetics, NCI, NIH, Bethesda, MD", "Department of Surgery, Lund University Hospital, Lund, Sweden", "Department of Oncology Pathology, Karolinska Institutet and Karolinska University Hospital, Stockholm, Sweden", "Department of Internal Medicine and Medical Specialties, University of Genoa, Genoa, Italy; Genetics of Rare Cancers, IRCCS Ospedale Policlinico San Martino, Genoa, Italy", 
-"Department of Dermatology, Leiden University Medical Center, Leiden, the Netherlands", "Division of Cancer Epidemiology and Genetics, NCI, NIH, Bethesda, MD", "Cancer Genomics Research Laboratory, Leidos Biomedical Research Inc, Frederick National Laboratory for Cancer Research, Frederick, MD; Division of Cancer Epidemiology and Genetics, NCI, NIH, Bethesda, MD", "Department of Internal Medicine and Medical Specialties, University of Genoa, Genoa, Italy; Genetics of Rare Cancers, IRCCS Ospedale Policlinico San Martino, Genoa, Italy", 
-"Melanoma Sarcoma and Rare Tumors, IEO European Institute of Oncology, Milano, Italy", "Medical Oncology Unit 1, IRCCS Ospedale Policlinico San Martino, Genoa, Italy", "Medical Oncology Unit 1, IRCCS Ospedale Policlinico San Martino, Genoa, Italy", "American Cancer Society, Atlanta, GA", "Cancer Genomics Research Laboratory, Leidos Biomedical Research Inc, Frederick National Laboratory for Cancer Research, Frederick, MD; Division of Cancer Epidemiology and Genetics, NCI, NIH, Bethesda, MD", "Cancer Genomics Research Laboratory, Leidos Biomedical Research Inc, Frederick National Laboratory for Cancer Research, Frederick, MD; Division of Cancer Epidemiology and Genetics, NCI, NIH, Bethesda, MD", 
-"Cancer Genomics Research Laboratory, Leidos Biomedical Research Inc, Frederick National Laboratory for Cancer Research, Frederick, MD; Division of Cancer Epidemiology and Genetics, NCI, NIH, Bethesda, MD", "Division of Cancer Epidemiology and Genetics, NCI, NIH, Bethesda, MD", "Division of Cancer Epidemiology and Genetics, NCI, NIH, Bethesda, MD", "Division of Cancer Epidemiology and Genetics, NCI, NIH, Bethesda, MD", "Division of Cancer Epidemiology and Genetics, NCI, NIH, Bethesda, MD", "Department of Oncology Pathology, Karolinska Institutet and Karolinska University Hospital, Stockholm, Sweden", 
-"Melanoma Unit, Hospital Clínic de Barcelona, IDIBAPS, Universitat de Barcelona and CIBERER, Barcelona, Spain", "Department of Dermatology, Leiden University Medical Center, Leiden, the Netherlands", "Division of Cancer Epidemiology and Genetics, NCI, NIH, Bethesda, MD", "Department of Internal Medicine and Medical Specialties, University of Genoa, Genoa, Italy; Genetics of Rare Cancers, IRCCS Ospedale Policlinico San Martino, Genoa, Italy", "Division of Cancer Epidemiology and Genetics, NCI, NIH, Bethesda, MD"
-), institution_id = c("https://openalex.org/I4210090236", NA, NA, NA, "https://openalex.org/I187531555", "https://openalex.org/I1335113835", "https://openalex.org/I4210146472", "https://openalex.org/I2800006345", NA, "https://openalex.org/I114662689", "https://openalex.org/I4210146472", "https://openalex.org/I6141010", "https://openalex.org/I4210146472", "https://openalex.org/I4210146472", "https://openalex.org/I1288198617", "https://openalex.org/I114662689", "https://openalex.org/I114662689", "https://openalex.org/I114662689", 
-NA, NA, NA, NA, "https://openalex.org/I1335113835", "https://openalex.org/I4210115097", "https://openalex.org/I2800006345", NA, "https://openalex.org/I4210146472", NA), institution_display_name = c("National Human Genome Research Institute", NA, NA, NA, "Lund University", "Karolinska University Hospital", "Ospedale Policlinico San Martino", "Leiden University Medical Center", NA, "Leidos (United States)", "Ospedale Policlinico San Martino", "European Institute of Oncology", "Ospedale Policlinico San Martino", 
-"Ospedale Policlinico San Martino", "American Cancer Society", "Leidos (United States)", "Leidos (United States)", "Leidos (United States)", NA, NA, NA, NA, "Karolinska University Hospital", "Hospital Clínic de Barcelona", "Leiden University Medical Center", NA, "Ospedale Policlinico San Martino", NA), institution_ror = c("https://ror.org/00baak391", NA, NA, NA, "https://ror.org/012a77v79", "https://ror.org/00m8d6786", "https://ror.org/04d7es448", "https://ror.org/05xvt9f17", NA, "https://ror.org/012cvds63", 
-"https://ror.org/04d7es448", "https://ror.org/02vr0ne26", "https://ror.org/04d7es448", "https://ror.org/04d7es448", "https://ror.org/02e463172", "https://ror.org/012cvds63", "https://ror.org/012cvds63", "https://ror.org/012cvds63", NA, NA, NA, NA, "https://ror.org/00m8d6786", "https://ror.org/02a2kzf50", "https://ror.org/05xvt9f17", NA, "https://ror.org/04d7es448", NA), institution_country_code = c("US", NA, NA, NA, "SE", "SE", "IT", "NL", NA, "US", "IT", "IT", "IT", "IT", "US", "US", "US", "US", 
-NA, NA, NA, NA, "SE", "ES", "NL", NA, "IT", NA), institution_type = c("facility", NA, NA, NA, "education", "healthcare", "healthcare", "healthcare", NA, "company", "healthcare", "healthcare", "healthcare", "healthcare", "nonprofit", "company", "company", "company", NA, NA, NA, NA, "healthcare", "healthcare", "healthcare", NA, "healthcare", NA), institution_lineage = c("https://openalex.org/I1299303238, https://openalex.org/I4210090236", NA, NA, NA, "https://openalex.org/I187531555", "https://openalex.org/I1335113835", 
-"https://openalex.org/I4210146472, https://openalex.org/I4210153126", "https://openalex.org/I2800006345", NA, "https://openalex.org/I114662689", "https://openalex.org/I4210146472, https://openalex.org/I4210153126", "https://openalex.org/I4210153126, https://openalex.org/I6141010", "https://openalex.org/I4210146472, https://openalex.org/I4210153126", "https://openalex.org/I4210146472, https://openalex.org/I4210153126", "https://openalex.org/I1288198617", "https://openalex.org/I114662689", "https://openalex.org/I114662689", 
-"https://openalex.org/I114662689", NA, NA, NA, NA, "https://openalex.org/I1335113835", "https://openalex.org/I4210115097", "https://openalex.org/I2800006345", NA, "https://openalex.org/I4210146472, https://openalex.org/I4210153126", NA))</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PURPOSE Pancreatic ductal adenocarcinoma (PDAC) is a component of familial melanoma due to germline pathogenic variants (GPVs) in CDKN2A. However, it is unclear what role this gene or other genes play in its etiology. MATERIALS AND METHODS We analyzed 189 cancer predisposition genes using parametric rare-variant association (RVA) tests and nonparametric permutation tests to identify gene-level associations in PDAC for patients with ( CDKN2A +) and without ( CDKN2A–) GPV. Exome sequencing was performed on 84 patients with PDAC, 47 CDKN2A+ and 37 CDKN2A–. After variant filtering, various RVA tests and permutation tests were run separately by CDKN2A status. Genes with the strongest nominal associations were evaluated in patients with PDAC from The Cancer Genome Atlas and the UK Biobank (UKB). A secondary analysis including only GPV from UKB was also performed. RESULTS In RVA tests, ERCC4 and RET showed the most compelling evidence as plausible PDAC candidate genes for CDKN2A+ patients. In contrast, the findings in CDKN2A– patients provided evidence for HMBS, EPCAM, and MRE11 as potential new candidate genes and confirmed ATM, BRCA2, and PALB2 as PDAC genes, consistent with findings in The Cancer Genome Atlas and the UKB. As expected, CDKN2A– patients were more likely to harbor GPVs from the 189 genes investigated. When including only GPVs from UKB, significant associations with PDAC were seen for ATM, BRCA2, and CDKN2A. CONCLUSION These results suggest that variants in other genes likely play a role in PDAC in all patients and that PDAC in CDKN2A+ patients has a distinct etiology from PDAC in CDKN2A– patients.</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>JCO Precision Oncology</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>JCO Precision Oncology</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4210227748</t>
+          <t>https://doi.org/10.1200/po.22.00145</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2473-4284</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36409970</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1200/po.22.00145</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC10166474</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4309662339</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4309662339", doi = "https://doi.org/10.1200/po.22.00145", pmid = "https://pubmed.ncbi.nlm.nih.gov/36409970")</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1200/po.22.00145</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1514004567", "https://openalex.org/W1903606743", "https://openalex.org/W1968043000", "https://openalex.org/W1971102564", "https://openalex.org/W1973198827", "https://openalex.org/W1985550131", "https://openalex.org/W1995331253", "https://openalex.org/W1996227395", "https://openalex.org/W2003316240", "https://openalex.org/W2007201086", "https://openalex.org/W2011830133", "https://openalex.org/W2025785990", "https://openalex.org/W2046373677", "https://openalex.org/W2051870471", 
-"https://openalex.org/W2051978340", "https://openalex.org/W2063655230", "https://openalex.org/W2088225476", "https://openalex.org/W2100909778", "https://openalex.org/W2101160627", "https://openalex.org/W2102140136", "https://openalex.org/W2104344134", "https://openalex.org/W2111628618", "https://openalex.org/W2113496553", "https://openalex.org/W2119180969", "https://openalex.org/W2122038062", "https://openalex.org/W2131617435", "https://openalex.org/W2133107210", "https://openalex.org/W2141317943", 
-"https://openalex.org/W2142815709", "https://openalex.org/W2147918436", "https://openalex.org/W2165491413", "https://openalex.org/W2184781233", "https://openalex.org/W2198502545", "https://openalex.org/W2232697670", "https://openalex.org/W2329659234", "https://openalex.org/W2498949496", "https://openalex.org/W2522369252", "https://openalex.org/W2761934863", "https://openalex.org/W2789869568", "https://openalex.org/W2802514581", "https://openalex.org/W2810883871", "https://openalex.org/W2895486342", 
-"https://openalex.org/W2903435824", "https://openalex.org/W2998609748", "https://openalex.org/W3015466050", "https://openalex.org/W3024875366", "https://openalex.org/W3030086839", "https://openalex.org/W3097450419", "https://openalex.org/W3122503107", "https://openalex.org/W3136202812", "https://openalex.org/W3177160312", "https://openalex.org/W3178475513", "https://openalex.org/W3217485783", "https://openalex.org/W4234254898")</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2071355922", "https://openalex.org/W4283782560", "https://openalex.org/W2793960037", "https://openalex.org/W3141716038", "https://openalex.org/W4294676928", "https://openalex.org/W3030154634", "https://openalex.org/W2890060779", "https://openalex.org/W2672007471", "https://openalex.org/W2800938829", "https://openalex.org/W4315489722")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Esteban Symonds_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Esteban Symonds_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Clinical Genetics Branch, Division of Cancer Epidemiology and Genetics, National Cancer Institute, NIH, 9609 Medical Center Drive, Rockville, MD 20850, USA; Clinical Genetics Branch, Division of Cancer Epidemiology and Genetics, National Cancer Institute, NIH, 9609 Medical Center Drive, Rockville, MD 20850, USA; Geisinger Clinic, Geisinger Health System, 100 N Academy Ave, Danville, CA 17821, USA; Clinical Genetics Branch, Division of Cancer Epidemiology and Genetics, National Cancer Institute, NIH, 9609 Medical Center Drive, Rockville, MD 20850, USA; Department of Genetic Medicine, Johns Hopkins University School of Medicine, 733 N Broadway, Baltimore, MD 21205, USA; Geisinger Clinic, Geisinger Health System, 100 N Academy Ave, Danville, CA 17821, USA; Regeneron Genetics Center, 777 Old Saw Mill River Rd, Tarrytown, NY 10591, USA; Geisinger Clinic, Geisinger Health System, 100 N Academy Ave, Danville, CA 17821, USA; Clinical Genetics Branch, Division of Cancer Epidemiology and Genetics, National Cancer Institute, NIH, 9609 Medical Center Drive, Rockville, MD 20850, USA; Clinical Genetics Branch, Division of Cancer Epidemiology and Genetics, National Cancer Institute, NIH, 9609 Medical Center Drive, Rockville, MD 20850, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283782560</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>A Genome-First Approach to Estimate Prevalence of Germline Pathogenic Variants and Risk of Pancreatic Cancer in Select Cancer Susceptibility Genes</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-07-02</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Cancers</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/cancers14133257</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35805029</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/cancers14133257</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson, AZ; Division of Cancer Epidemiology and Genetics, NCI, NIH, Bethesda, MD; National Human Genome Research Institute, NIH, Bethesda, MD; Division of Cancer Epidemiology and Genetics, NCI, NIH, Bethesda, MD; Division of Cancer Epidemiology and Genetics, NCI, NIH, Bethesda, MD; Division of Cancer Epidemiology and Genetics, NCI, NIH, Bethesda, MD; Department of Surgery, Lund University Hospital, Lund, Sweden; Department of Oncology Pathology, Karolinska Institutet and Karolinska University Hospital, Stockholm, Sweden; Department of Internal Medicine and Medical Specialties, University of Genoa, Genoa, Italy; Genetics of Rare Cancers, IRCCS Ospedale Policlinico San Martino, Genoa, Italy; Department of Dermatology, Leiden University Medical Center, Leiden, the Netherlands; Division of Cancer Epidemiology and Genetics, NCI, NIH, Bethesda, MD; Cancer Genomics Research Laboratory, Leidos Biomedical Research Inc, Frederick National Laboratory for Cancer Research, Frederick, MD; Division of Cancer Epidemiology and Genetics, NCI, NIH, Bethesda, MD; Department of Internal Medicine and Medical Specialties, University of Genoa, Genoa, Italy; Genetics of Rare Cancers, IRCCS Ospedale Policlinico San Martino, Genoa, Italy; Melanoma Sarcoma and Rare Tumors, IEO European Institute of Oncology, Milano, Italy; Medical Oncology Unit 1, IRCCS Ospedale Policlinico San Martino, Genoa, Italy; Medical Oncology Unit 1, IRCCS Ospedale Policlinico San Martino, Genoa, Italy; American Cancer Society, Atlanta, GA; Cancer Genomics Research Laboratory, Leidos Biomedical Research Inc, Frederick National Laboratory for Cancer Research, Frederick, MD; Division of Cancer Epidemiology and Genetics, NCI, NIH, Bethesda, MD; Cancer Genomics Research Laboratory, Leidos Biomedical Research Inc, Frederick National Laboratory for Cancer Research, Frederick, MD; Division of Cancer Epidemiology and Genetics, NCI, NIH, Bethesda, MD; Cancer Genomics Research Laboratory, Leidos Biomedical Research Inc, Frederick National Laboratory for Cancer Research, Frederick, MD; Division of Cancer Epidemiology and Genetics, NCI, NIH, Bethesda, MD; Division of Cancer Epidemiology and Genetics, NCI, NIH, Bethesda, MD; Division of Cancer Epidemiology and Genetics, NCI, NIH, Bethesda, MD; Division of Cancer Epidemiology and Genetics, NCI, NIH, Bethesda, MD; Division of Cancer Epidemiology and Genetics, NCI, NIH, Bethesda, MD; Department of Oncology Pathology, Karolinska Institutet and Karolinska University Hospital, Stockholm, Sweden; Melanoma Unit, Hospital Clínic de Barcelona, IDIBAPS, Universitat de Barcelona and CIBERER, Barcelona, Spain; Department of Dermatology, Leiden University Medical Center, Leiden, the Netherlands; Division of Cancer Epidemiology and Genetics, NCI, NIH, Bethesda, MD; Department of Internal Medicine and Medical Specialties, University of Genoa, Genoa, Italy; Genetics of Rare Cancers, IRCCS Ospedale Policlinico San Martino, Genoa, Italy; Division of Cancer Epidemiology and Genetics, NCI, NIH, Bethesda, MD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4309662339</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Gene-Level Associations in Patients With and Without Pathogenic Germline Variants in &lt;i&gt;CDKN2A&lt;/i&gt; and Pancreatic Cancer</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-11-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>JCO Precision Oncology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/po.22.00145</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36409970</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/po.22.00145</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
